--- a/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC3.4.2_TC2.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC3.4.2_TC2.xlsx
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.130915717401245</v>
+        <v>0.1220857228185415</v>
       </c>
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="7" t="inlineStr">
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.290721687662401</v>
+        <v>0.3595817908248243</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.29072168766240103, 'ngram_match_score': 0.13052896068713066, 'weighted_ngram_match_score': 0.14547996190817472, 'syntax_match_score': 0.5692307692307692, 'dataflow_match_score': 0.3176470588235294}</t>
+          <t>{'codebleu': 0.35958179082482433, 'ngram_match_score': 0.1217292643494159, 'weighted_ngram_match_score': 0.13560242383675933, 'syntax_match_score': 0.5692307692307692, 'dataflow_match_score': 0.611764705882353}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.6936901879229446</v>
+        <v>0.4607057954493304</v>
       </c>
       <c r="C13" s="3" t="n"/>
       <c r="D13" s="3" t="inlineStr">
